--- a/data/trans_orig/P1434-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>7071</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3504</v>
+        <v>2771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12776</v>
+        <v>12763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02590190879408655</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01283462467569578</v>
+        <v>0.01015139560621538</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0467975254040923</v>
+        <v>0.04675049951958411</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>265939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260234</v>
+        <v>260247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269506</v>
+        <v>270239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9740980912059134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9532024745959077</v>
+        <v>0.9532495004804157</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9871653753243043</v>
+        <v>0.9898486043937845</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>14657</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8071</v>
+        <v>8022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24793</v>
+        <v>23390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02972563928224772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01636849484596956</v>
+        <v>0.01627028647417321</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05028335179971794</v>
+        <v>0.04743787179293631</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>478418</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468282</v>
+        <v>469685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>485004</v>
+        <v>485053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9702743607177523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9497166482002821</v>
+        <v>0.9525621282070633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9836315051540304</v>
+        <v>0.9837297135258266</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>7790</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3561</v>
+        <v>3657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14307</v>
+        <v>13884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02443176969457847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01116782932670306</v>
+        <v>0.01147014991165227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04486997369873421</v>
+        <v>0.04354342479399532</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>311056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304539</v>
+        <v>304962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315285</v>
+        <v>315189</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9755682303054215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9551300263012659</v>
+        <v>0.9564565752060048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.988832170673297</v>
+        <v>0.9885298500883478</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>5091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1782</v>
+        <v>1748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11677</v>
+        <v>11935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01419452367497303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004968347572878959</v>
+        <v>0.004874676578671459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03255644577397416</v>
+        <v>0.03327484177983173</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>353580</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346994</v>
+        <v>346736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356889</v>
+        <v>356923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.985805476325027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9674435542260259</v>
+        <v>0.9667251582201678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9950316524271211</v>
+        <v>0.9951253234213285</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>3305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>819</v>
+        <v>857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7587</v>
+        <v>7601</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0162564489197733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004029776341048611</v>
+        <v>0.004215946348575936</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03731915240693193</v>
+        <v>0.03738628246768089</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>200003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195721</v>
+        <v>195707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202489</v>
+        <v>202451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9837435510802267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9626808475930683</v>
+        <v>0.9626137175323193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959702236589514</v>
+        <v>0.9957840536514241</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>3898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9630</v>
+        <v>8920</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01439498271796744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003565002948125003</v>
+        <v>0.003603621556758726</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03555853669223151</v>
+        <v>0.03293987265097589</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>266913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261181</v>
+        <v>261891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269846</v>
+        <v>269835</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9856050172820325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9644414633077686</v>
+        <v>0.9670601273490248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964349970518751</v>
+        <v>0.9963963784432414</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>20246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13101</v>
+        <v>13225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31009</v>
+        <v>32727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0329180879618342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02130191503316843</v>
+        <v>0.02150281701147447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05041912231278387</v>
+        <v>0.05321310266682434</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>594781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>584018</v>
+        <v>582300</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>601926</v>
+        <v>601802</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9670819120381658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.949580877687216</v>
+        <v>0.9467868973331756</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9786980849668315</v>
+        <v>0.9784971829885255</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>44129</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34265</v>
+        <v>32519</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58949</v>
+        <v>57794</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05932959248945734</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04606715206392636</v>
+        <v>0.04372105017802212</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07925385756732137</v>
+        <v>0.07770143914555684</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>699666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>684846</v>
+        <v>686001</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>709530</v>
+        <v>711276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9406704075105426</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9207461424326786</v>
+        <v>0.9222985608544432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9539328479360736</v>
+        <v>0.9562789498219779</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>106188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03240840611078726</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>3170355</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3149655</v>
+        <v>3149117</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3188699</v>
+        <v>3188201</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9675915938892128</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.96127392202908</v>
+        <v>0.9611096533070123</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9731900495822763</v>
+        <v>0.9730381163146854</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>17679</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10645</v>
+        <v>9980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28732</v>
+        <v>28500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05998207242551035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03611798702717658</v>
+        <v>0.03386172320272563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09748475028537346</v>
+        <v>0.0966949356354565</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>277059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266006</v>
+        <v>266238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284093</v>
+        <v>284758</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9400179275744897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9025152497146266</v>
+        <v>0.9033050643645435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9638820129728234</v>
+        <v>0.9661382767972744</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>17561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10230</v>
+        <v>10445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29212</v>
+        <v>30409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03473787275283494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02023688090025412</v>
+        <v>0.02066112129183339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05778618530575776</v>
+        <v>0.06015237690267847</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>487966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476315</v>
+        <v>475118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495297</v>
+        <v>495082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9652621272471651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9422138146942424</v>
+        <v>0.9398476230973216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9797631190997459</v>
+        <v>0.9793388787081666</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>6116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2093</v>
+        <v>2054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13122</v>
+        <v>12473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01887392431496354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006459221029898475</v>
+        <v>0.006339472886077811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04049389844975939</v>
+        <v>0.03849016247280685</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>317930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310924</v>
+        <v>311573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321953</v>
+        <v>321992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9811260756850365</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9595061015502406</v>
+        <v>0.9615098375271932</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9935407789701015</v>
+        <v>0.9936605271139223</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>9053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3549</v>
+        <v>4281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19433</v>
+        <v>18267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02420658317694822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009488458002437299</v>
+        <v>0.0114461115042004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05196109531270368</v>
+        <v>0.04884449379181084</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>364929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354549</v>
+        <v>355715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370433</v>
+        <v>369701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9757934168230518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9480389046872963</v>
+        <v>0.9511555062081896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905115419975627</v>
+        <v>0.9885538884957996</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>6535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2220</v>
+        <v>2211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12365</v>
+        <v>13580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0307360285136833</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01043927750873384</v>
+        <v>0.01040039961325907</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05815450438169972</v>
+        <v>0.06387049580541108</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>206083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200253</v>
+        <v>199038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210398</v>
+        <v>210407</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9692639714863167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9418454956183003</v>
+        <v>0.9361295041945891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9895607224912661</v>
+        <v>0.9895996003867409</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>6255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2087</v>
+        <v>3093</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12645</v>
+        <v>13378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02283114179044265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007617743743917154</v>
+        <v>0.01129024707317016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04615112858347781</v>
+        <v>0.04882754497590888</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>267726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261336</v>
+        <v>260603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271894</v>
+        <v>270888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9771688582095573</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.953848871416522</v>
+        <v>0.9511724550240906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9923822562560828</v>
+        <v>0.9887097529268298</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>26159</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17714</v>
+        <v>17315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38097</v>
+        <v>39159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03959974740896003</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02681519496105862</v>
+        <v>0.0262113473949237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05767082270836627</v>
+        <v>0.05927849704806474</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>634438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>622500</v>
+        <v>621438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>642883</v>
+        <v>643282</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.96040025259104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9423291772916338</v>
+        <v>0.9407215029519351</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9731848050389414</v>
+        <v>0.9737886526050763</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>35050</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23254</v>
+        <v>24519</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48110</v>
+        <v>49700</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04498841232966642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02984727492562516</v>
+        <v>0.03147121936235932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06175054709284428</v>
+        <v>0.06379202432659405</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>744048</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>730988</v>
+        <v>729398</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755844</v>
+        <v>754579</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9550115876703336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9382494529071561</v>
+        <v>0.9362079756734059</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9701527250743748</v>
+        <v>0.9685287806376406</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>124409</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03632816513965646</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>3300178</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3276254</v>
+        <v>3272744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3322044</v>
+        <v>3321316</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9636718348603436</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9566860042744058</v>
+        <v>0.9556608844610328</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9700568061689671</v>
+        <v>0.96984425163216</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>17116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10474</v>
+        <v>10297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25833</v>
+        <v>26166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05826481951232777</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03565437306884069</v>
+        <v>0.03505145060113675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08793973161784291</v>
+        <v>0.08907207666383357</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>276645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267928</v>
+        <v>267595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283287</v>
+        <v>283464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9417351804876722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.912060268382157</v>
+        <v>0.9109279233361665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9643456269311593</v>
+        <v>0.9649485493988633</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>10375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5432</v>
+        <v>5056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18835</v>
+        <v>18435</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0206441554621315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01080893941227667</v>
+        <v>0.01005988212149159</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0374761480649707</v>
+        <v>0.03668167541413318</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>492200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483740</v>
+        <v>484140</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497143</v>
+        <v>497519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9793558445378685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9625238519350295</v>
+        <v>0.9633183245858671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9891910605877233</v>
+        <v>0.9899401178785084</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>16099</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9205</v>
+        <v>9648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24877</v>
+        <v>26290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05053612053526081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02889540956418102</v>
+        <v>0.03028510735786775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07808960537334575</v>
+        <v>0.08252558183933542</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>302466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>293688</v>
+        <v>292275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309360</v>
+        <v>308917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9494638794647392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9219103946266543</v>
+        <v>0.9174744181606646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9711045904358194</v>
+        <v>0.9697148926421323</v>
       </c>
     </row>
     <row r="12">
@@ -2779,19 +2779,19 @@
         <v>12649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7032</v>
+        <v>7314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20410</v>
+        <v>21075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03419026345847212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01900669247534032</v>
+        <v>0.01977038897442125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05516776257726427</v>
+        <v>0.0569644854175227</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>357315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>349554</v>
+        <v>348889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362932</v>
+        <v>362650</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9658097365415279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9448322374227356</v>
+        <v>0.9430355145824769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9809933075246595</v>
+        <v>0.9802296110255787</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>5375</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1859</v>
+        <v>1888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11139</v>
+        <v>11086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02544889026259048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008799902971332388</v>
+        <v>0.008938619332682024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05273644097779334</v>
+        <v>0.05248494411756931</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>205846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200082</v>
+        <v>200135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209362</v>
+        <v>209333</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9745511097374095</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9472635590222064</v>
+        <v>0.9475150558824308</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912000970286676</v>
+        <v>0.991061380667318</v>
       </c>
     </row>
     <row r="18">
@@ -2961,19 +2961,19 @@
         <v>5427</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2070</v>
+        <v>1851</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11430</v>
+        <v>10912</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0206254904694889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007867293279034676</v>
+        <v>0.007033646072962671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04344058357859702</v>
+        <v>0.04147045721703387</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>257696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251693</v>
+        <v>252211</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261053</v>
+        <v>261272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9793745095305111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.956559416421403</v>
+        <v>0.9585295427829662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9921327067209654</v>
+        <v>0.9929663539270374</v>
       </c>
     </row>
     <row r="21">
@@ -3052,19 +3052,19 @@
         <v>19866</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11956</v>
+        <v>12798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29957</v>
+        <v>31104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03025735578715645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01820952993174602</v>
+        <v>0.01949230913422932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04562718537916426</v>
+        <v>0.04737359339488637</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>636692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>626601</v>
+        <v>625454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>644602</v>
+        <v>643760</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9697426442128435</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9543728146208358</v>
+        <v>0.9526264066051133</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9817904700682539</v>
+        <v>0.9805076908657704</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>22095</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14717</v>
+        <v>14614</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32614</v>
+        <v>33305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02837837929271169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01890208745360484</v>
+        <v>0.01876977215847142</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04188884798706085</v>
+        <v>0.04277696473577754</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>756488</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>745969</v>
+        <v>745278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>763866</v>
+        <v>763969</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9716216207072883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9581111520129393</v>
+        <v>0.957223035264222</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9810979125463953</v>
+        <v>0.9812302278415281</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>109002</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0321128885917014</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>3285348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3263637</v>
+        <v>3264387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3302972</v>
+        <v>3304135</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9678871114082986</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9614909706874567</v>
+        <v>0.9617118179421621</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9730793451699394</v>
+        <v>0.9734220615410997</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>11401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6465</v>
+        <v>6643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17851</v>
+        <v>18773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03575664454576703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0202770146267034</v>
+        <v>0.02083472556010032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05598752792400463</v>
+        <v>0.05887748867681784</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>307444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300994</v>
+        <v>300072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312380</v>
+        <v>312202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9642433554542329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9440124720759954</v>
+        <v>0.9411225113231823</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9797229853732965</v>
+        <v>0.9791652744398999</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>11296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5640</v>
+        <v>5769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19612</v>
+        <v>19363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02142953068740339</v>
+        <v>0.02142953068740338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0107003856012187</v>
+        <v>0.01094416490865276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03720561567294249</v>
+        <v>0.03673399879020059</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>515829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>507513</v>
+        <v>507762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521485</v>
+        <v>521356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9785704693125967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9627943843270573</v>
+        <v>0.9632660012097994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9892996143987812</v>
+        <v>0.9890558350913473</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>23805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16796</v>
+        <v>17552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32149</v>
+        <v>31947</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07572122084769214</v>
+        <v>0.07572122084769216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.053427556442675</v>
+        <v>0.05583320649327407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1022631486080593</v>
+        <v>0.1016230040983828</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>290567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282223</v>
+        <v>282425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297576</v>
+        <v>296820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9242787791523078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8977368513919403</v>
+        <v>0.8983769959016172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9465724435573249</v>
+        <v>0.9441667935067258</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>22098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13764</v>
+        <v>14462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32102</v>
+        <v>32785</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05999503154368374</v>
+        <v>0.05999503154368375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03737032801070817</v>
+        <v>0.03926354347329527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08715616146494959</v>
+        <v>0.08901163885856207</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>346226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336222</v>
+        <v>335539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354560</v>
+        <v>353862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9400049684563162</v>
+        <v>0.9400049684563163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9128438385350502</v>
+        <v>0.9109883611414377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9626296719892916</v>
+        <v>0.9607364565267041</v>
       </c>
     </row>
     <row r="15">
@@ -3811,19 +3811,19 @@
         <v>9143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5386</v>
+        <v>5290</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14633</v>
+        <v>14485</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0447412450352999</v>
+        <v>0.04474124503529989</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0263531589733149</v>
+        <v>0.02588400575786204</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07160134642282835</v>
+        <v>0.07088085093563028</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>195220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189730</v>
+        <v>189878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198977</v>
+        <v>199073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9552587549647001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9283986535771718</v>
+        <v>0.9291191490643698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9736468410266852</v>
+        <v>0.974115994242138</v>
       </c>
     </row>
     <row r="18">
@@ -3902,19 +3902,19 @@
         <v>25108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18652</v>
+        <v>18934</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32609</v>
+        <v>32998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09274900177772633</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06890061868044955</v>
+        <v>0.06994240456712897</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1204579665409205</v>
+        <v>0.1218964712051921</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>245599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238098</v>
+        <v>237709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252055</v>
+        <v>251773</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9072509982222736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8795420334590794</v>
+        <v>0.8781035287948076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9310993813195506</v>
+        <v>0.9300575954328709</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>32596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23738</v>
+        <v>22157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44282</v>
+        <v>43775</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04569027966888815</v>
+        <v>0.04569027966888814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03327431079810808</v>
+        <v>0.03105772218666038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06207128644873626</v>
+        <v>0.06136037025554644</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>680814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>669128</v>
+        <v>669635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>689672</v>
+        <v>691253</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9543097203311118</v>
+        <v>0.9543097203311117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9379287135512638</v>
+        <v>0.9386396297444535</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9667256892018919</v>
+        <v>0.9689422778133393</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>57630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46271</v>
+        <v>45955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71952</v>
+        <v>70788</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07247986735713073</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05819439993259971</v>
+        <v>0.05779625979759317</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09049248619634191</v>
+        <v>0.08902909319105554</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>737483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>723161</v>
+        <v>724325</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748842</v>
+        <v>749158</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9275201326428693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.909507513803658</v>
+        <v>0.9109709068089448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9418056000674003</v>
+        <v>0.942203740202407</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>193076</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05497201421889269</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>3319184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3294853</v>
+        <v>3296159</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3341382</v>
+        <v>3341565</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9450279857811074</v>
+        <v>0.9450279857811072</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9381004623395968</v>
+        <v>0.9384724381631072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9513481685780295</v>
+        <v>0.9514003329588936</v>
       </c>
     </row>
     <row r="30">
